--- a/data/trans_camb/P19_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,76</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -0,23</t>
+          <t>-0,17; 9,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,6</t>
+          <t>-3,12; 7,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 8,07</t>
+          <t>-8,98; 5,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 6,0</t>
+          <t>-7,36; 6,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 1,59</t>
+          <t>-8,73; 7,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 0,71</t>
+          <t>-9,23; 5,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -0,92</t>
+          <t>-0,32; 13,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 10,77</t>
+          <t>-0,67; 12,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -0,96</t>
+          <t>0,48; 14,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 0,01</t>
+          <t>-0,09; 13,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 1,48</t>
+          <t>-12,56; 2,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,41</t>
+          <t>-6,01; 13,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 9,92</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 8,68</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 7,34</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 7,4</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 3,52</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 6,84</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-64,15%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-32,74%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,1%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-39,55%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-46,8%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-45,95%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-36,29%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-28,1%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-91,13; 16,48</t>
+          <t>-0,16; 11,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-72,52; 76,18</t>
+          <t>-3,23; 8,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,43; 152,62</t>
+          <t>-9,6; 6,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,06; 130,34</t>
+          <t>-7,91; 6,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,37; 19,27</t>
+          <t>-9,23; 8,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,23; 9,83</t>
+          <t>-9,85; 6,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,03; -6,35</t>
+          <t>-0,27; 17,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 86,55</t>
+          <t>-0,7; 16,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,82; -5,72</t>
+          <t>0,65; 18,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 0,46</t>
+          <t>-0,07; 17,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-57,82; 15,82</t>
+          <t>-13,3; 2,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 59,33</t>
+          <t>-6,87; 17,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 11,63</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 10,14</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 8,5</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 8,56</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 4,03</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 8,06</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-3,87</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 0,06</t>
+          <t>-0,32; 8,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 0,41</t>
+          <t>-0,25; 8,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 9,28</t>
+          <t>-10,95; 5,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 8,99</t>
+          <t>-3,71; 6,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 2,93</t>
+          <t>-12,77; 2,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 0,16</t>
+          <t>-8,97; 7,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 4,46</t>
+          <t>-3,09; 9,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 3,06</t>
+          <t>0,06; 11,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -0,25</t>
+          <t>-4,7; 7,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -0,89</t>
+          <t>-2,1; 9,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 4,16</t>
+          <t>-10,43; 2,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,66</t>
+          <t>-9,41; 2,79</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 7,24</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 7,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 5,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 6,15</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; 0,23</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 3,02</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-60,24%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-54,22%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,82%</t>
+          <t>-4,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,44%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,76%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-27,03%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-43,08%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-49,08%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-13,05%</t>
+          <t>-3,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-4,13%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-89,47; 21,74</t>
+          <t>-0,33; 9,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,87; 17,96</t>
+          <t>-0,24; 8,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 265,25</t>
+          <t>-11,6; 6,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 209,27</t>
+          <t>-3,91; 7,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,27; 46,74</t>
+          <t>-13,34; 2,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,1; 17,07</t>
+          <t>-9,6; 8,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 62,12</t>
+          <t>-3,27; 11,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,0; 40,54</t>
+          <t>0,08; 13,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,78; -2,85</t>
+          <t>-5,07; 9,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-71,91; -11,49</t>
+          <t>-2,19; 11,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 61,0</t>
+          <t>-10,93; 2,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 56,19</t>
+          <t>-10,2; 2,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 8,25</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 8,95</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 5,7</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 6,85</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 0,22</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-8,07; 3,37</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,61</t>
+          <t>-1,5; 6,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -0,16</t>
+          <t>0,01; 7,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,56</t>
+          <t>-0,73; 6,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,02</t>
+          <t>-5,1; 4,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,17</t>
+          <t>-5,47; 4,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 1,42</t>
+          <t>-5,95; 3,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,45</t>
+          <t>-2,41; 4,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 6,1</t>
+          <t>-1,85; 5,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 0,44</t>
+          <t>-3,7; 4,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,11</t>
+          <t>-3,55; 4,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,23</t>
+          <t>-7,65; 2,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,29</t>
+          <t>-5,46; 5,15</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 4,67</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 5,04</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 4,19</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 3,35</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 1,94</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 2,62</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,07%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-50,78%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-42,74%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-29,26%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-31,75%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-39,6%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-21,93%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>-0,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,81; 16,24</t>
+          <t>-1,59; 6,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,17; 7,33</t>
+          <t>0,02; 8,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,23; 22,5</t>
+          <t>-0,76; 7,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,97; 96,57</t>
+          <t>-5,36; 4,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,11; 45,85</t>
+          <t>-5,74; 5,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 28,22</t>
+          <t>-6,17; 4,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 68,46</t>
+          <t>-2,54; 5,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 115,07</t>
+          <t>-1,94; 5,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,01; 8,86</t>
+          <t>-3,87; 4,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 2,33</t>
+          <t>-3,74; 4,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 23,93</t>
+          <t>-8,05; 2,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 61,09</t>
+          <t>-5,87; 5,84</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 5,11</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 5,5</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 4,58</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 3,67</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 2,13</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 2,89</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-2,4</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-2,34</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,57</t>
+          <t>-4,11; 4,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 4,47</t>
+          <t>-5,38; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,87</t>
+          <t>-10,19; 1,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,22</t>
+          <t>-8,1; -0,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -0,05</t>
+          <t>-7,81; 3,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -0,8</t>
+          <t>-11,1; -1,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,19</t>
+          <t>-0,04; 8,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 6,59</t>
+          <t>0,54; 9,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,19</t>
+          <t>-2,13; 6,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,96</t>
+          <t>-6,55; 3,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,32</t>
+          <t>-3,59; 7,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,77</t>
+          <t>-4,24; 7,38</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 5,19</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 4,52</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 2,83</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 0,6</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 3,58</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 1,63</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>70,33%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>-3,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-39,43%</t>
+          <t>-2,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-40,88%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,81%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-32,98%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-21,47%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-0,46%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-2,61%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-2,55%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 170,54</t>
+          <t>-4,18; 4,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 168,8</t>
+          <t>-5,53; 2,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 316,94</t>
+          <t>-10,76; 1,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,63; 178,22</t>
+          <t>-8,43; -0,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,14; 4,09</t>
+          <t>-8,24; 3,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,42; -7,37</t>
+          <t>-11,44; -1,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 26,06</t>
+          <t>-0,0; 10,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 72,62</t>
+          <t>0,59; 10,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,07; 12,75</t>
+          <t>-2,3; 7,79</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 15,29</t>
+          <t>-7,23; 4,42</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 62,34</t>
+          <t>-3,95; 9,49</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 57,29</t>
+          <t>-4,76; 8,74</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 5,75</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 5,0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 3,09</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 0,68</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 4,08</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 1,79</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>-1,78</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-4,85</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 0,45</t>
+          <t>-0,54; 5,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,9</t>
+          <t>-3,02; 3,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,37</t>
+          <t>-5,16; 1,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 13,59</t>
+          <t>-6,25; 1,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,29</t>
+          <t>-9,94; 0,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 2,0</t>
+          <t>-6,08; 8,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 3,53</t>
+          <t>-3,55; 6,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,63</t>
+          <t>-2,27; 7,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,11</t>
+          <t>-2,67; 6,66</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 1,53</t>
+          <t>-6,84; 4,21</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,25</t>
+          <t>-11,82; 1,24</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,1</t>
+          <t>-8,62; 4,76</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 4,42</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 4,29</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 3,02</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 1,8</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; -0,24</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 4,1</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-58,25%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>186,24%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-17,4%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-28,58%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-29,31%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-21,14%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>-2,05%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-1,8%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-5,26%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,26; 51,53</t>
+          <t>-0,53; 5,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-59,41; 147,62</t>
+          <t>-3,14; 3,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 249,15</t>
+          <t>-5,25; 2,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,53; 516,76</t>
+          <t>-6,5; 1,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 59,76</t>
+          <t>-10,44; 0,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,72; 39,26</t>
+          <t>-6,7; 9,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 60,69</t>
+          <t>-3,77; 6,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 178,62</t>
+          <t>-2,46; 7,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 27,09</t>
+          <t>-2,86; 7,49</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-55,07; 34,15</t>
+          <t>-7,26; 4,77</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 71,51</t>
+          <t>-12,56; 1,52</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>27,33; 224,11</t>
+          <t>-9,62; 5,77</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 4,85</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 4,66</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 3,26</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 1,95</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; -0,25</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 4,77</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-4,58</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-5,69</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,6</t>
+          <t>-3,08; 3,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 10,91</t>
+          <t>-10,32; 0,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,4</t>
+          <t>-8,13; 0,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 4,8</t>
+          <t>-2,11; 5,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 6,52</t>
+          <t>-12,81; -1,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,11</t>
+          <t>-10,12; 1,79</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 3,71</t>
+          <t>-8,38; 5,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 8,21</t>
+          <t>-4,05; 7,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,75</t>
+          <t>-3,6; 7,67</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,48</t>
+          <t>-7,13; 6,63</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,09</t>
+          <t>-12,9; 2,26</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,73</t>
+          <t>-12,67; 4,72</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 3,66</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 2,46</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 3,24</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 4,77</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; -0,71</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; 0,83</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-19,27%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>128,33%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-14,89%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>-5,63%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-4,46%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-80,93; 215,62</t>
+          <t>-3,14; 4,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 593,74</t>
+          <t>-10,6; 0,32</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 434,16</t>
+          <t>-8,4; 0,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-70,85; 331,29</t>
+          <t>-2,08; 5,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-54,8; 103,37</t>
+          <t>-12,93; -1,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,98; 65,55</t>
+          <t>-10,78; 1,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-56,98; 67,37</t>
+          <t>-9,16; 5,64</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-54,31; 126,67</t>
+          <t>-4,29; 8,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 73,37</t>
+          <t>-3,83; 8,9</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 120,98</t>
+          <t>-7,57; 7,53</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 90,97</t>
+          <t>-13,98; 2,58</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-44,2; 118,27</t>
+          <t>-13,69; 5,5</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 4,02</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 2,66</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 3,53</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 5,22</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-11,47; -0,79</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-10,68; 0,87</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,25; -1,07</t>
+          <t>0,46; 3,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,0</t>
+          <t>-0,86; 2,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,05</t>
+          <t>-3,08; 1,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,3</t>
+          <t>-2,43; 1,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,48</t>
+          <t>-5,52; -0,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -1,25</t>
+          <t>-4,83; 0,39</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,37; -0,16</t>
+          <t>0,17; 4,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,54</t>
+          <t>1,35; 5,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -1,23</t>
+          <t>0,17; 4,24</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,77</t>
+          <t>-1,34; 3,24</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,65</t>
+          <t>-5,85; -0,49</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,89</t>
+          <t>-4,11; 1,64</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 3,85</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 3,4</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 2,3</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 1,95</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; -1,11</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 0,14</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-45,83%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-32,58%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-21,2%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-32,58%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-26,12%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-65,33; -22,02</t>
+          <t>0,48; 4,08</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 22,08</t>
+          <t>-0,89; 2,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 64,71</t>
+          <t>-3,24; 1,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 70,65</t>
+          <t>-2,55; 1,45</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -4,38</t>
+          <t>-5,82; -0,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-48,01; -13,75</t>
+          <t>-5,15; 0,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-38,4; -0,74</t>
+          <t>0,2; 5,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 39,42</t>
+          <t>1,5; 5,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -16,2</t>
+          <t>0,19; 4,77</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-39,92; -10,72</t>
+          <t>-1,48; 3,66</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 9,73</t>
+          <t>-6,34; -0,55</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 41,71</t>
+          <t>-4,52; 1,89</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 4,22</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 3,74</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 2,53</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 2,13</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; -1,21</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 0,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
